--- a/DC-DC/TPS63000 Dev.Board/Info/TPS63000-VCC.xlsx
+++ b/DC-DC/TPS63000 Dev.Board/Info/TPS63000-VCC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Vector\USER\A_D\Hardware\TPS63000 Dev.Board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Kalashnikov\_Проекты\__ Устройство проверки оптического затвора\Hardware\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,21 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Vout</t>
-  </si>
-  <si>
-    <t>Rh</t>
-  </si>
-  <si>
-    <t>Rl</t>
   </si>
   <si>
     <t>Vref</t>
   </si>
   <si>
-    <t>Cff</t>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
   </si>
 </sst>
 </file>
@@ -47,8 +44,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,8 +89,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -110,6 +107,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>256462</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="447675"/>
+          <a:ext cx="5704762" cy="2761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,7 +418,7 @@
   <dimension ref="B4:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,37 +435,32 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
         <f>C6*((C4/C5)-1)</f>
-        <v>1080000</v>
+        <v>909000</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>0.5</v>
       </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3">
-        <f>2.2/G4</f>
-        <v>2.0370370370370371E-6</v>
-      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>120000</v>
+        <v>101000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>